--- a/estimacionDelphi_V2.0.xlsx
+++ b/estimacionDelphi_V2.0.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="239">
   <si>
     <t>Contexto</t>
   </si>
@@ -323,18 +323,12 @@
     <t>Desarrollador</t>
   </si>
   <si>
-    <t>1 año</t>
-  </si>
-  <si>
     <t>Fernando Enríque Martínez Rodríguez</t>
   </si>
   <si>
     <t>Desarrollador</t>
   </si>
   <si>
-    <t>1 año</t>
-  </si>
-  <si>
     <t>Erika Paloma Sánchez Femat</t>
   </si>
   <si>
@@ -353,18 +347,12 @@
     <t>Desarrollador</t>
   </si>
   <si>
-    <t>1 año</t>
-  </si>
-  <si>
     <t>José Alejandro Salas Serna</t>
   </si>
   <si>
     <t>Desarrollador</t>
   </si>
   <si>
-    <t>1 año</t>
-  </si>
-  <si>
     <t>Tecnología</t>
   </si>
   <si>
@@ -545,15 +533,6 @@
     <t>Pruebas de integracion</t>
   </si>
   <si>
-    <t>Realizar la prueba completa de un sistema</t>
-  </si>
-  <si>
-    <t>Pruebas del sistema</t>
-  </si>
-  <si>
-    <t>Pruebas de desempeño</t>
-  </si>
-  <si>
     <t>Caracterización (tipo de complejidad)</t>
   </si>
   <si>
@@ -566,9 +545,6 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>Llenar plantillas</t>
-  </si>
-  <si>
     <t>Analizar información investigada</t>
   </si>
   <si>
@@ -590,21 +566,9 @@
     <t>Información general del problema a resolver</t>
   </si>
   <si>
-    <t>Hacer entendible la información investigada</t>
-  </si>
-  <si>
     <t>Apegarse a una forma de redactar</t>
   </si>
   <si>
-    <t>Documentos de una plantilla</t>
-  </si>
-  <si>
-    <t>Documentos de 2 a 3 plantillas</t>
-  </si>
-  <si>
-    <t>Documentos de mas de 3 plantillas</t>
-  </si>
-  <si>
     <t>Caracterización (tipo de complejidad)</t>
   </si>
   <si>
@@ -665,9 +629,6 @@
     <t>Pruebas de compatibilidad</t>
   </si>
   <si>
-    <t>Pruebas de estilo</t>
-  </si>
-  <si>
     <t>Componentes con algoritmos propios</t>
   </si>
   <si>
@@ -723,6 +684,57 @@
   </si>
   <si>
     <t>Métodos que utilicen cálculos sencillos. Operaciones elementales</t>
+  </si>
+  <si>
+    <t>1 año y medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 año y medio</t>
+  </si>
+  <si>
+    <t>Consultas básicas a base de datos</t>
+  </si>
+  <si>
+    <t>Consultas con claves foraneas a base de datos</t>
+  </si>
+  <si>
+    <t>Consultas avanzadas base de datos</t>
+  </si>
+  <si>
+    <t>Conexiones entre aplicaciones</t>
+  </si>
+  <si>
+    <t>Generacion de catalogos sencillos</t>
+  </si>
+  <si>
+    <t>Generacion de tablas dinámicas pequeñas</t>
+  </si>
+  <si>
+    <t>Generación de tablas dinámicas extensas.</t>
+  </si>
+  <si>
+    <t>Generación de catalogos dinámicos.</t>
+  </si>
+  <si>
+    <t>Generación de catálogos simples.</t>
+  </si>
+  <si>
+    <t>Consultas externas para generación de documento.</t>
+  </si>
+  <si>
+    <t>Llenar plantillas prediseñadas</t>
+  </si>
+  <si>
+    <t>Documentos de una cuartilla</t>
+  </si>
+  <si>
+    <t>Documentos de 2 a 3 cuartillas</t>
+  </si>
+  <si>
+    <t>Documentos de mas de 3 cuartillas</t>
+  </si>
+  <si>
+    <t>Pruebas de sistema</t>
   </si>
 </sst>
 </file>
@@ -781,7 +793,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -810,15 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -838,60 +841,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1138,64 +1087,80 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1205,94 +1170,6 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1803,6 +1680,61 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1812,326 +1744,320 @@
   <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2434,10 +2360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2450,612 +2376,617 @@
   <sheetData>
     <row r="1" spans="1:12" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="105" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="65"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="108" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="65"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="86" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="87" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="65"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="86" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="65"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="33"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="86" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="59"/>
+      <c r="I6" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="65"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="65"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="33"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="65"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="59"/>
+      <c r="I8" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="33"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="65"/>
+      <c r="B9" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="33"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="110" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="111" t="str">
+      <c r="B11" s="34"/>
+      <c r="C11" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="51" t="str">
         <f>C4</f>
         <v>Luis Bernardo Pulido Gaytán</v>
       </c>
-      <c r="E11" s="111" t="str">
+      <c r="E11" s="51" t="str">
         <f>C5</f>
         <v>Fernando Enríque Martínez Rodríguez</v>
       </c>
-      <c r="F11" s="111" t="str">
+      <c r="F11" s="51" t="str">
         <f>C6</f>
         <v>Erika Paloma Sánchez Femat</v>
       </c>
-      <c r="G11" s="111" t="str">
+      <c r="G11" s="51" t="str">
         <f>C7</f>
         <v>Francisco Javier Alamillo Murillo</v>
       </c>
-      <c r="H11" s="112" t="str">
+      <c r="H11" s="52" t="str">
         <f>C8</f>
         <v>José Alejandro Salas Serna</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="65"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="K12" s="100" t="s">
-        <v>146</v>
-      </c>
-      <c r="L12" s="65"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="88"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="97" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="B13" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="14">
         <v>22</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>20</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>20</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>22</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>22</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <f t="shared" ref="I13:I15" si="0">MIN(D13:H13)</f>
         <v>20</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <f t="shared" ref="J13:J15" si="1">MAX(D13:H13)</f>
         <v>22</v>
       </c>
-      <c r="K13" s="101">
+      <c r="K13" s="46">
         <f t="shared" ref="K13:K15" si="2">AVERAGE(D13:H13)</f>
         <v>21.2</v>
       </c>
-      <c r="L13" s="65"/>
+      <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="95" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="B14" s="86"/>
+      <c r="C14" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="19">
         <v>8</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>7</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>7</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>8</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>8</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="21">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K14" s="102">
+      <c r="K14" s="47">
         <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
-      <c r="L14" s="65"/>
+      <c r="L14" s="33"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="B15" s="87"/>
+      <c r="C15" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="24">
         <v>4</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <v>3</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>3</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <v>4</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="24">
         <v>4</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K15" s="103">
+      <c r="K15" s="48">
         <f t="shared" si="2"/>
         <v>3.6</v>
       </c>
-      <c r="L15" s="65"/>
+      <c r="L15" s="33"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="104" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
+      <c r="B17" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="76"/>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="72" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
+      <c r="B18" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="74" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="79" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="83"/>
+      <c r="B19" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38"/>
     </row>
     <row r="20" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
+      <c r="B20" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
+      <c r="B21" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="76" t="s">
-        <v>234</v>
-      </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="76" t="s">
-        <v>232</v>
-      </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
+      <c r="B22" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
+      <c r="B23" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
+      <c r="B24" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
+      <c r="B25" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="68"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="67"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="117"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="120" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="122"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I21:L21"/>
+  <mergeCells count="59">
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B17:L17"/>
@@ -3072,16 +3003,37 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I21:L21"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3091,8 +3043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3106,310 +3058,310 @@
     </row>
     <row r="2" spans="1:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="3"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="137" t="s">
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="138" t="s">
+      <c r="H3" s="78"/>
+      <c r="I3" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="93"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="133" t="s">
+      <c r="B4" s="105"/>
+      <c r="C4" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="134" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="135" t="s">
+      <c r="H4" s="63"/>
+      <c r="I4" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="86" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="87" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="88" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="86" t="s">
+      <c r="B6" s="105"/>
+      <c r="C6" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="87" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="88" t="s">
+      <c r="H6" s="59"/>
+      <c r="I6" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="86" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="87" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="88" t="s">
+      <c r="H7" s="59"/>
+      <c r="I7" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="86" t="s">
+      <c r="B8" s="105"/>
+      <c r="C8" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="87" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="88" t="s">
+      <c r="H8" s="59"/>
+      <c r="I8" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="118"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="98"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="111" t="str">
+      <c r="B11" s="6"/>
+      <c r="C11" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="51" t="str">
         <f>C4</f>
         <v>Luis Bernardo Pulido Gaytán</v>
       </c>
-      <c r="E11" s="111" t="str">
+      <c r="E11" s="51" t="str">
         <f>C5</f>
         <v>Fernando Enríque Martínez Rodríguez</v>
       </c>
-      <c r="F11" s="111" t="str">
+      <c r="F11" s="51" t="str">
         <f>C6</f>
         <v>Erika Paloma Sánchez Femat</v>
       </c>
-      <c r="G11" s="111" t="str">
+      <c r="G11" s="51" t="str">
         <f>C7</f>
         <v>Francisco Javier Alamillo Murillo</v>
       </c>
-      <c r="H11" s="112" t="str">
+      <c r="H11" s="52" t="str">
         <f>C8</f>
         <v>José Alejandro Salas Serna</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="90" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="88"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="89" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>127</v>
+      <c r="J12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="97" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="B13" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="14">
         <v>7</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>8</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>7</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>8</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>8</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <f t="shared" ref="I13:I15" si="0">MIN(D13:H13)</f>
         <v>7</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <f t="shared" ref="J13:J15" si="1">MAX(D13:H13)</f>
         <v>8</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <f t="shared" ref="K13:K15" si="2">AVERAGE(D13:H13)</f>
         <v>7.6</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="B14" s="86"/>
+      <c r="C14" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="19">
         <v>4</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>5</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>4</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>5</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>5</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="21">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="22">
         <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="B15" s="87"/>
+      <c r="C15" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="24">
         <v>2</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <v>2</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>2</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <v>2</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="24">
         <v>2</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="27">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -3419,220 +3371,196 @@
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="113" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="115"/>
+      <c r="B17" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="91"/>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="111" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="120" t="s">
-        <v>165</v>
-      </c>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="116"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="100"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
+      <c r="F19" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="124" t="s">
-        <v>173</v>
-      </c>
-      <c r="G20" s="125"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="124" t="s">
-        <v>187</v>
-      </c>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="126"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="55"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="123" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="124"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="118"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="98"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I22:L22"/>
+  <mergeCells count="53">
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C7:F7"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C2:K2"/>
@@ -3643,27 +3571,41 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F19:H19"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="D12:H12"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F19:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3671,518 +3613,577 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:L18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="12" width="10.7109375" customWidth="1"/>
+    <col min="2" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="3"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="50" t="s">
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="51" t="s">
+      <c r="H3" s="93"/>
+      <c r="I3" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="35" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="35" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="35" t="s">
+      <c r="H6" s="59"/>
+      <c r="I6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="112"/>
+      <c r="C7" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="35" t="s">
+      <c r="H7" s="59"/>
+      <c r="I7" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="40" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="35" t="s">
+      <c r="H8" s="59"/>
+      <c r="I8" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-    </row>
-    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-    </row>
-    <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="9" t="str">
+      <c r="D11" s="8" t="str">
         <f>C4</f>
         <v>Luis Bernardo Pulido Gaytán</v>
       </c>
-      <c r="E11" s="9" t="str">
+      <c r="E11" s="8" t="str">
         <f>C5</f>
         <v>Fernando Enríque Martínez Rodríguez</v>
       </c>
-      <c r="F11" s="9" t="str">
+      <c r="F11" s="8" t="str">
         <f>C6</f>
         <v>Erika Paloma Sánchez Femat</v>
       </c>
-      <c r="G11" s="9" t="str">
+      <c r="G11" s="8" t="str">
         <f>C7</f>
         <v>Francisco Javier Alamillo Murillo</v>
       </c>
-      <c r="H11" s="9" t="str">
+      <c r="H11" s="8" t="str">
         <f>C8</f>
         <v>José Alejandro Salas Serna</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="12" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="115"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="B13" s="116" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="14">
         <v>10</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>10</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>10</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>11</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>11</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <f t="shared" ref="I13:I15" si="0">MIN(D13:H13)</f>
         <v>10</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <f t="shared" ref="J13:J15" si="1">MAX(D13:H13)</f>
         <v>11</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <f t="shared" ref="K13:K15" si="2">AVERAGE(D13:H13)</f>
         <v>10.4</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="20">
+      <c r="B14" s="112"/>
+      <c r="C14" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="19">
         <v>8</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21">
+      <c r="H14" s="19"/>
+      <c r="I14" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="21">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="22">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="B15" s="112"/>
+      <c r="C15" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="24">
         <v>6</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <v>5</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>5</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <v>6</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="24">
         <v>6</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="27">
         <f t="shared" si="2"/>
         <v>5.6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
+      <c r="B17" s="138" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
+      <c r="B18" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
+      <c r="B19" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="128" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
+      <c r="B20" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
+      <c r="B21" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
+      <c r="B22" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="I27:L27"/>
@@ -4199,46 +4200,6 @@
     <mergeCell ref="B17:L17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="I18:L18"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4248,323 +4209,326 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="12" width="10.7109375" customWidth="1"/>
+    <col min="2" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="3"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="50" t="s">
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="51" t="s">
+      <c r="H3" s="93"/>
+      <c r="I3" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="35" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="35" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="35" t="s">
+      <c r="H6" s="59"/>
+      <c r="I6" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="112"/>
+      <c r="C7" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="35" t="s">
+      <c r="H7" s="59"/>
+      <c r="I7" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="40" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="35" t="s">
+      <c r="H8" s="59"/>
+      <c r="I8" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-    </row>
-    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-    </row>
-    <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="9" t="str">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="8" t="str">
         <f>C4</f>
         <v>Luis Bernardo Pulido Gaytán</v>
       </c>
-      <c r="E11" s="9" t="str">
+      <c r="E11" s="8" t="str">
         <f>C5</f>
         <v>Fernando Enríque Martínez Rodríguez</v>
       </c>
-      <c r="F11" s="9" t="str">
+      <c r="F11" s="8" t="str">
         <f>C6</f>
         <v>Erika Paloma Sánchez Femat</v>
       </c>
-      <c r="G11" s="9" t="str">
+      <c r="G11" s="8" t="str">
         <f>C7</f>
         <v>Francisco Javier Alamillo Murillo</v>
       </c>
-      <c r="H11" s="9" t="str">
+      <c r="H11" s="8" t="str">
         <f>C8</f>
         <v>José Alejandro Salas Serna</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>134</v>
+      <c r="B12" s="6"/>
+      <c r="C12" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="115"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="B13" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="14">
         <v>8</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>8</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>8</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>8</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>9</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <f t="shared" ref="I13:I15" si="0">MIN(D13:H13)</f>
         <v>8</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <f t="shared" ref="J13:J15" si="1">MAX(D13:H13)</f>
         <v>9</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <f t="shared" ref="K13:K15" si="2">AVERAGE(D13:H13)</f>
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="B14" s="112"/>
+      <c r="C14" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="19">
         <v>5</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>6</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>5</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>5</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>6</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="21">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="22">
         <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="B15" s="112"/>
+      <c r="C15" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="24">
         <v>2</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <v>2</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>2</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <v>2</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="24">
         <v>3</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="27">
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
@@ -4572,208 +4536,245 @@
     <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
+      <c r="B17" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
+      <c r="B18" s="126" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="111" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
+      <c r="B19" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
+      <c r="B20" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
+      <c r="B21" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
+      <c r="B22" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="I22" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="56">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="D12:H12"/>
@@ -4790,11 +4791,549 @@
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B17:L17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="12" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="136" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="93"/>
+      <c r="I3" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="59"/>
+      <c r="I4" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="59"/>
+      <c r="I5" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="59"/>
+      <c r="I6" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="59"/>
+      <c r="I8" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="8" t="str">
+        <f>C4</f>
+        <v>Luis Bernardo Pulido Gaytán</v>
+      </c>
+      <c r="E11" s="8" t="str">
+        <f>C5</f>
+        <v>Fernando Enríque Martínez Rodríguez</v>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f>C6</f>
+        <v>Erika Paloma Sánchez Femat</v>
+      </c>
+      <c r="G11" s="8" t="str">
+        <f>C7</f>
+        <v>Francisco Javier Alamillo Murillo</v>
+      </c>
+      <c r="H11" s="8" t="str">
+        <f>C8</f>
+        <v>José Alejandro Salas Serna</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="115"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="14">
+        <v>8</v>
+      </c>
+      <c r="E13" s="14">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14">
+        <v>8</v>
+      </c>
+      <c r="G13" s="14">
+        <v>9</v>
+      </c>
+      <c r="H13" s="14">
+        <v>10</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" ref="I13:I15" si="0">MIN(D13:H13)</f>
+        <v>8</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" ref="J13:J15" si="1">MAX(D13:H13)</f>
+        <v>10</v>
+      </c>
+      <c r="K13" s="17">
+        <f t="shared" ref="K13:K15" si="2">AVERAGE(D13:H13)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="19">
+        <v>6</v>
+      </c>
+      <c r="E14" s="19">
+        <v>6</v>
+      </c>
+      <c r="F14" s="19">
+        <v>5</v>
+      </c>
+      <c r="G14" s="19">
+        <v>6</v>
+      </c>
+      <c r="H14" s="19">
+        <v>6</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="22">
+        <f t="shared" si="2"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="24">
+        <v>2</v>
+      </c>
+      <c r="E15" s="24">
+        <v>3</v>
+      </c>
+      <c r="F15" s="24">
+        <v>2</v>
+      </c>
+      <c r="G15" s="24">
+        <v>3</v>
+      </c>
+      <c r="H15" s="24">
+        <v>3</v>
+      </c>
+      <c r="I15" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J15" s="26">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K15" s="27">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+    </row>
+    <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="126" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="111" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+    </row>
+    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C5:F5"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B28:E28"/>
@@ -4811,553 +5350,11 @@
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="I28:L28"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C4:F4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="12" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-    </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-    </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-    </row>
-    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-    </row>
-    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-    </row>
-    <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="9" t="str">
-        <f>C4</f>
-        <v>Luis Bernardo Pulido Gaytán</v>
-      </c>
-      <c r="E11" s="9" t="str">
-        <f>C5</f>
-        <v>Fernando Enríque Martínez Rodríguez</v>
-      </c>
-      <c r="F11" s="9" t="str">
-        <f>C6</f>
-        <v>Erika Paloma Sánchez Femat</v>
-      </c>
-      <c r="G11" s="9" t="str">
-        <f>C7</f>
-        <v>Francisco Javier Alamillo Murillo</v>
-      </c>
-      <c r="H11" s="9" t="str">
-        <f>C8</f>
-        <v>José Alejandro Salas Serna</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="15">
-        <v>8</v>
-      </c>
-      <c r="E13" s="15">
-        <v>10</v>
-      </c>
-      <c r="F13" s="15">
-        <v>8</v>
-      </c>
-      <c r="G13" s="15">
-        <v>9</v>
-      </c>
-      <c r="H13" s="15">
-        <v>10</v>
-      </c>
-      <c r="I13" s="16">
-        <f t="shared" ref="I13:I15" si="0">MIN(D13:H13)</f>
-        <v>8</v>
-      </c>
-      <c r="J13" s="17">
-        <f t="shared" ref="J13:J15" si="1">MAX(D13:H13)</f>
-        <v>10</v>
-      </c>
-      <c r="K13" s="18">
-        <f t="shared" ref="K13:K15" si="2">AVERAGE(D13:H13)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="20">
-        <v>6</v>
-      </c>
-      <c r="E14" s="20">
-        <v>6</v>
-      </c>
-      <c r="F14" s="20">
-        <v>5</v>
-      </c>
-      <c r="G14" s="20">
-        <v>6</v>
-      </c>
-      <c r="H14" s="20">
-        <v>6</v>
-      </c>
-      <c r="I14" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J14" s="22">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="K14" s="23">
-        <f t="shared" si="2"/>
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="25">
-        <v>2</v>
-      </c>
-      <c r="E15" s="25">
-        <v>3</v>
-      </c>
-      <c r="F15" s="25">
-        <v>2</v>
-      </c>
-      <c r="G15" s="25">
-        <v>3</v>
-      </c>
-      <c r="H15" s="25">
-        <v>3</v>
-      </c>
-      <c r="I15" s="26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J15" s="27">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K15" s="28">
-        <f t="shared" si="2"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-    </row>
-    <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-    </row>
-    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-    </row>
-    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-    </row>
-    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-    </row>
-    <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="D12:H12"/>
@@ -5374,47 +5371,6 @@
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B17:L17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/estimacionDelphi_V2.0.xlsx
+++ b/estimacionDelphi_V2.0.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>Contexto</t>
   </si>
@@ -323,12 +323,18 @@
     <t>Desarrollador</t>
   </si>
   <si>
+    <t>1 año</t>
+  </si>
+  <si>
     <t>Fernando Enríque Martínez Rodríguez</t>
   </si>
   <si>
     <t>Desarrollador</t>
   </si>
   <si>
+    <t>1 año</t>
+  </si>
+  <si>
     <t>Erika Paloma Sánchez Femat</t>
   </si>
   <si>
@@ -347,12 +353,18 @@
     <t>Desarrollador</t>
   </si>
   <si>
+    <t>1 año</t>
+  </si>
+  <si>
     <t>José Alejandro Salas Serna</t>
   </si>
   <si>
     <t>Desarrollador</t>
   </si>
   <si>
+    <t>1 año</t>
+  </si>
+  <si>
     <t>Tecnología</t>
   </si>
   <si>
@@ -533,6 +545,15 @@
     <t>Pruebas de integracion</t>
   </si>
   <si>
+    <t>Realizar la prueba completa de un sistema</t>
+  </si>
+  <si>
+    <t>Pruebas del sistema</t>
+  </si>
+  <si>
+    <t>Pruebas de desempeño</t>
+  </si>
+  <si>
     <t>Caracterización (tipo de complejidad)</t>
   </si>
   <si>
@@ -545,6 +566,9 @@
     <t>Alta</t>
   </si>
   <si>
+    <t>Llenar plantillas</t>
+  </si>
+  <si>
     <t>Analizar información investigada</t>
   </si>
   <si>
@@ -566,9 +590,21 @@
     <t>Información general del problema a resolver</t>
   </si>
   <si>
+    <t>Hacer entendible la información investigada</t>
+  </si>
+  <si>
     <t>Apegarse a una forma de redactar</t>
   </si>
   <si>
+    <t>Documentos de una plantilla</t>
+  </si>
+  <si>
+    <t>Documentos de 2 a 3 plantillas</t>
+  </si>
+  <si>
+    <t>Documentos de mas de 3 plantillas</t>
+  </si>
+  <si>
     <t>Caracterización (tipo de complejidad)</t>
   </si>
   <si>
@@ -629,6 +665,9 @@
     <t>Pruebas de compatibilidad</t>
   </si>
   <si>
+    <t>Pruebas de estilo</t>
+  </si>
+  <si>
     <t>Componentes con algoritmos propios</t>
   </si>
   <si>
@@ -684,57 +723,6 @@
   </si>
   <si>
     <t>Métodos que utilicen cálculos sencillos. Operaciones elementales</t>
-  </si>
-  <si>
-    <t>1 año y medio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 año y medio</t>
-  </si>
-  <si>
-    <t>Consultas básicas a base de datos</t>
-  </si>
-  <si>
-    <t>Consultas con claves foraneas a base de datos</t>
-  </si>
-  <si>
-    <t>Consultas avanzadas base de datos</t>
-  </si>
-  <si>
-    <t>Conexiones entre aplicaciones</t>
-  </si>
-  <si>
-    <t>Generacion de catalogos sencillos</t>
-  </si>
-  <si>
-    <t>Generacion de tablas dinámicas pequeñas</t>
-  </si>
-  <si>
-    <t>Generación de tablas dinámicas extensas.</t>
-  </si>
-  <si>
-    <t>Generación de catalogos dinámicos.</t>
-  </si>
-  <si>
-    <t>Generación de catálogos simples.</t>
-  </si>
-  <si>
-    <t>Consultas externas para generación de documento.</t>
-  </si>
-  <si>
-    <t>Llenar plantillas prediseñadas</t>
-  </si>
-  <si>
-    <t>Documentos de una cuartilla</t>
-  </si>
-  <si>
-    <t>Documentos de 2 a 3 cuartillas</t>
-  </si>
-  <si>
-    <t>Documentos de mas de 3 cuartillas</t>
-  </si>
-  <si>
-    <t>Pruebas de sistema</t>
   </si>
 </sst>
 </file>
@@ -793,7 +781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -822,6 +810,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -841,6 +838,60 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1087,80 +1138,64 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1170,6 +1205,94 @@
       <right/>
       <top/>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1680,61 +1803,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1744,320 +1812,326 @@
   <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2360,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:H27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2376,617 +2450,612 @@
   <sheetData>
     <row r="1" spans="1:12" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="33"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="62" t="s">
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="62" t="s">
+      <c r="H3" s="107"/>
+      <c r="I3" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="33"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="82" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="33"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="65"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="82" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="33"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="73"/>
+      <c r="I5" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="65"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="64" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="33"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="73"/>
+      <c r="I6" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="33"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="73"/>
+      <c r="I7" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="33"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="73"/>
+      <c r="I8" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="33"/>
+      <c r="B9" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="51" t="str">
+      <c r="B11" s="66"/>
+      <c r="C11" s="110" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="111" t="str">
         <f>C4</f>
         <v>Luis Bernardo Pulido Gaytán</v>
       </c>
-      <c r="E11" s="51" t="str">
+      <c r="E11" s="111" t="str">
         <f>C5</f>
         <v>Fernando Enríque Martínez Rodríguez</v>
       </c>
-      <c r="F11" s="51" t="str">
+      <c r="F11" s="111" t="str">
         <f>C6</f>
         <v>Erika Paloma Sánchez Femat</v>
       </c>
-      <c r="G11" s="51" t="str">
+      <c r="G11" s="111" t="str">
         <f>C7</f>
         <v>Francisco Javier Alamillo Murillo</v>
       </c>
-      <c r="H11" s="52" t="str">
+      <c r="H11" s="112" t="str">
         <f>C8</f>
         <v>José Alejandro Salas Serna</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="33"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="65"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K12" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="L12" s="33"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12" s="65"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="B13" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="15">
         <v>22</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <v>20</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="15">
         <v>20</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="15">
         <v>22</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="15">
         <v>22</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="16">
         <f t="shared" ref="I13:I15" si="0">MIN(D13:H13)</f>
         <v>20</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="17">
         <f t="shared" ref="J13:J15" si="1">MAX(D13:H13)</f>
         <v>22</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="101">
         <f t="shared" ref="K13:K15" si="2">AVERAGE(D13:H13)</f>
         <v>21.2</v>
       </c>
-      <c r="L13" s="33"/>
+      <c r="L13" s="65"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="B14" s="98"/>
+      <c r="C14" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="20">
         <v>8</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="20">
         <v>7</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="20">
         <v>7</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="20">
         <v>8</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="20">
         <v>8</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="22">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="102">
         <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="B15" s="99"/>
+      <c r="C15" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="25">
         <v>4</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="25">
         <v>3</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="25">
         <v>3</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="25">
         <v>4</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="25">
         <v>4</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="27">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="103">
         <f t="shared" si="2"/>
         <v>3.6</v>
       </c>
-      <c r="L15" s="33"/>
+      <c r="L15" s="65"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76"/>
+      <c r="B17" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="78"/>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
+      <c r="B18" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="38"/>
+      <c r="B19" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="83"/>
     </row>
     <row r="20" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
+      <c r="B20" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
+      <c r="B21" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="72" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
+      <c r="B22" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="76" t="s">
+        <v>232</v>
+      </c>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
+      <c r="B23" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
+      <c r="B24" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="66" t="s">
-        <v>226</v>
-      </c>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="67"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="117"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120" t="s">
-        <v>227</v>
-      </c>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="122"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
+  <mergeCells count="56">
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I21:L21"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B17:L17"/>
@@ -3003,37 +3072,16 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I21:L21"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3043,8 +3091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3058,310 +3106,310 @@
     </row>
     <row r="2" spans="1:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="2"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="107" t="s">
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="108" t="s">
+      <c r="H3" s="92"/>
+      <c r="I3" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="78"/>
-      <c r="K3" s="79"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="93"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="102" t="s">
+      <c r="B4" s="129"/>
+      <c r="C4" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="109" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="106" t="s">
+      <c r="H4" s="107"/>
+      <c r="I4" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="83" t="s">
+      <c r="B5" s="129"/>
+      <c r="C5" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="82" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="64" t="s">
+      <c r="H5" s="73"/>
+      <c r="I5" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="129"/>
+      <c r="C6" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="82" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="64" t="s">
+      <c r="H6" s="73"/>
+      <c r="I6" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="129"/>
+      <c r="C7" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="82" t="s">
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64" t="s">
+      <c r="H7" s="73"/>
+      <c r="I7" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="83" t="s">
+      <c r="B8" s="129"/>
+      <c r="C8" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="82" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="64" t="s">
+      <c r="H8" s="73"/>
+      <c r="I8" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="98"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="51" t="str">
+      <c r="B11" s="7"/>
+      <c r="C11" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="111" t="str">
         <f>C4</f>
         <v>Luis Bernardo Pulido Gaytán</v>
       </c>
-      <c r="E11" s="51" t="str">
+      <c r="E11" s="111" t="str">
         <f>C5</f>
         <v>Fernando Enríque Martínez Rodríguez</v>
       </c>
-      <c r="F11" s="51" t="str">
+      <c r="F11" s="111" t="str">
         <f>C6</f>
         <v>Erika Paloma Sánchez Femat</v>
       </c>
-      <c r="G11" s="51" t="str">
+      <c r="G11" s="111" t="str">
         <f>C7</f>
         <v>Francisco Javier Alamillo Murillo</v>
       </c>
-      <c r="H11" s="52" t="str">
+      <c r="H11" s="112" t="str">
         <f>C8</f>
         <v>José Alejandro Salas Serna</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="40" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>123</v>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="B13" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="15">
         <v>7</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <v>8</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="15">
         <v>7</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="15">
         <v>8</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="15">
         <v>8</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="16">
         <f t="shared" ref="I13:I15" si="0">MIN(D13:H13)</f>
         <v>7</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="17">
         <f t="shared" ref="J13:J15" si="1">MAX(D13:H13)</f>
         <v>8</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="18">
         <f t="shared" ref="K13:K15" si="2">AVERAGE(D13:H13)</f>
         <v>7.6</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="B14" s="98"/>
+      <c r="C14" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="20">
         <v>4</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="20">
         <v>5</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="20">
         <v>4</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="20">
         <v>5</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="20">
         <v>5</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="23">
         <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="B15" s="99"/>
+      <c r="C15" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="25">
         <v>2</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="25">
         <v>2</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="25">
         <v>2</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="25">
         <v>2</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="25">
         <v>2</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="27">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -3371,196 +3419,220 @@
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="91"/>
+      <c r="B17" s="113" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="115"/>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="111" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="99" t="s">
+      <c r="B18" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="100"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="120" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="116"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="F19" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
+      <c r="B19" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="55"/>
+      <c r="B20" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="124" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="125"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="126"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="123" t="s">
-        <v>167</v>
-      </c>
-      <c r="G21" s="124"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="98"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C7:F7"/>
+  <mergeCells count="55">
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I22:L22"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C2:K2"/>
@@ -3571,41 +3643,27 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F19:H19"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="D12:H12"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="F18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3613,577 +3671,518 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:L18"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="12" width="10.7109375" customWidth="1"/>
+    <col min="2" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="2"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="136" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="93"/>
-      <c r="I3" s="137" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="82" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="64" t="s">
+      <c r="H4" s="33"/>
+      <c r="I4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="83" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="82" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="64" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="82" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="64" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="82" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="83" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="82" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="64" t="s">
+      <c r="H8" s="33"/>
+      <c r="I8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-    </row>
-    <row r="10" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="8" t="str">
+      <c r="D11" s="9" t="str">
         <f>C4</f>
         <v>Luis Bernardo Pulido Gaytán</v>
       </c>
-      <c r="E11" s="8" t="str">
+      <c r="E11" s="9" t="str">
         <f>C5</f>
         <v>Fernando Enríque Martínez Rodríguez</v>
       </c>
-      <c r="F11" s="8" t="str">
+      <c r="F11" s="9" t="str">
         <f>C6</f>
         <v>Erika Paloma Sánchez Femat</v>
       </c>
-      <c r="G11" s="8" t="str">
+      <c r="G11" s="9" t="str">
         <f>C7</f>
         <v>Francisco Javier Alamillo Murillo</v>
       </c>
-      <c r="H11" s="8" t="str">
+      <c r="H11" s="9" t="str">
         <f>C8</f>
         <v>José Alejandro Salas Serna</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" s="12" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="12" t="s">
         <v>125</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="116" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="B13" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="15">
         <v>10</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <v>10</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="15">
         <v>10</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="15">
         <v>11</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="15">
         <v>11</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="16">
         <f t="shared" ref="I13:I15" si="0">MIN(D13:H13)</f>
         <v>10</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="17">
         <f t="shared" ref="J13:J15" si="1">MAX(D13:H13)</f>
         <v>11</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="18">
         <f t="shared" ref="K13:K15" si="2">AVERAGE(D13:H13)</f>
         <v>10.4</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="19">
+      <c r="B14" s="33"/>
+      <c r="C14" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="20">
         <v>8</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20">
+      <c r="H14" s="20"/>
+      <c r="I14" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="22">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="23">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="B15" s="33"/>
+      <c r="C15" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="25">
         <v>6</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="25">
         <v>5</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="25">
         <v>5</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="25">
         <v>6</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="25">
         <v>6</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="28">
         <f t="shared" si="2"/>
         <v>5.6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="138" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
+      <c r="B17" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
+      <c r="B18" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="128" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
+      <c r="B19" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
+      <c r="B20" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
+      <c r="B21" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
+      <c r="B22" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="131"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B27:E27"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="I27:L27"/>
@@ -4200,6 +4199,46 @@
     <mergeCell ref="B17:L17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="I18:L18"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4209,326 +4248,323 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:K2"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="2" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="2"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="136" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="93"/>
-      <c r="I3" s="137" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="82" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="64" t="s">
+      <c r="H4" s="33"/>
+      <c r="I4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="83" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="82" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="64" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="82" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="64" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="82" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="83" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="82" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="64" t="s">
+      <c r="H8" s="33"/>
+      <c r="I8" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-    </row>
-    <row r="10" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="8" t="str">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="9" t="str">
         <f>C4</f>
         <v>Luis Bernardo Pulido Gaytán</v>
       </c>
-      <c r="E11" s="8" t="str">
+      <c r="E11" s="9" t="str">
         <f>C5</f>
         <v>Fernando Enríque Martínez Rodríguez</v>
       </c>
-      <c r="F11" s="8" t="str">
+      <c r="F11" s="9" t="str">
         <f>C6</f>
         <v>Erika Paloma Sánchez Femat</v>
       </c>
-      <c r="G11" s="8" t="str">
+      <c r="G11" s="9" t="str">
         <f>C7</f>
         <v>Francisco Javier Alamillo Murillo</v>
       </c>
-      <c r="H11" s="8" t="str">
+      <c r="H11" s="9" t="str">
         <f>C8</f>
         <v>José Alejandro Salas Serna</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>130</v>
+      <c r="B12" s="7"/>
+      <c r="C12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="116" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="B13" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="15">
         <v>8</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <v>8</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="15">
         <v>8</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="15">
         <v>8</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="15">
         <v>9</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="16">
         <f t="shared" ref="I13:I15" si="0">MIN(D13:H13)</f>
         <v>8</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="17">
         <f t="shared" ref="J13:J15" si="1">MAX(D13:H13)</f>
         <v>9</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="18">
         <f t="shared" ref="K13:K15" si="2">AVERAGE(D13:H13)</f>
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="B14" s="33"/>
+      <c r="C14" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="20">
         <v>5</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="20">
         <v>6</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="20">
         <v>5</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="20">
         <v>5</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="20">
         <v>6</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="22">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="23">
         <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="B15" s="33"/>
+      <c r="C15" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="25">
         <v>2</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="25">
         <v>2</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="25">
         <v>2</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="25">
         <v>2</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="25">
         <v>3</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="28">
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
@@ -4536,245 +4572,208 @@
     <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="113" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
+      <c r="B17" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="126" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="111" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
+      <c r="B18" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
+      <c r="B19" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
+      <c r="B20" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
+      <c r="B21" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="I22" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
+      <c r="B22" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
+  <mergeCells count="57">
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="D12:H12"/>
@@ -4791,549 +4790,11 @@
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B17:L17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="12" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="134" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="136" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="93"/>
-      <c r="I3" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="133" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-    </row>
-    <row r="10" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="8" t="str">
-        <f>C4</f>
-        <v>Luis Bernardo Pulido Gaytán</v>
-      </c>
-      <c r="E11" s="8" t="str">
-        <f>C5</f>
-        <v>Fernando Enríque Martínez Rodríguez</v>
-      </c>
-      <c r="F11" s="8" t="str">
-        <f>C6</f>
-        <v>Erika Paloma Sánchez Femat</v>
-      </c>
-      <c r="G11" s="8" t="str">
-        <f>C7</f>
-        <v>Francisco Javier Alamillo Murillo</v>
-      </c>
-      <c r="H11" s="8" t="str">
-        <f>C8</f>
-        <v>José Alejandro Salas Serna</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="116" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="14">
-        <v>8</v>
-      </c>
-      <c r="E13" s="14">
-        <v>10</v>
-      </c>
-      <c r="F13" s="14">
-        <v>8</v>
-      </c>
-      <c r="G13" s="14">
-        <v>9</v>
-      </c>
-      <c r="H13" s="14">
-        <v>10</v>
-      </c>
-      <c r="I13" s="15">
-        <f t="shared" ref="I13:I15" si="0">MIN(D13:H13)</f>
-        <v>8</v>
-      </c>
-      <c r="J13" s="16">
-        <f t="shared" ref="J13:J15" si="1">MAX(D13:H13)</f>
-        <v>10</v>
-      </c>
-      <c r="K13" s="17">
-        <f t="shared" ref="K13:K15" si="2">AVERAGE(D13:H13)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="19">
-        <v>6</v>
-      </c>
-      <c r="E14" s="19">
-        <v>6</v>
-      </c>
-      <c r="F14" s="19">
-        <v>5</v>
-      </c>
-      <c r="G14" s="19">
-        <v>6</v>
-      </c>
-      <c r="H14" s="19">
-        <v>6</v>
-      </c>
-      <c r="I14" s="20">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J14" s="21">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="K14" s="22">
-        <f t="shared" si="2"/>
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="24">
-        <v>2</v>
-      </c>
-      <c r="E15" s="24">
-        <v>3</v>
-      </c>
-      <c r="F15" s="24">
-        <v>2</v>
-      </c>
-      <c r="G15" s="24">
-        <v>3</v>
-      </c>
-      <c r="H15" s="24">
-        <v>3</v>
-      </c>
-      <c r="I15" s="25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J15" s="26">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K15" s="27">
-        <f t="shared" si="2"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="113" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-    </row>
-    <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="126" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="111" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-    </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-    </row>
-    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-    </row>
-    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-    </row>
-    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-    </row>
-    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-    </row>
-    <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B28:E28"/>
@@ -5350,11 +4811,553 @@
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="I28:L28"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="12" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+    </row>
+    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="9" t="str">
+        <f>C4</f>
+        <v>Luis Bernardo Pulido Gaytán</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f>C5</f>
+        <v>Fernando Enríque Martínez Rodríguez</v>
+      </c>
+      <c r="F11" s="9" t="str">
+        <f>C6</f>
+        <v>Erika Paloma Sánchez Femat</v>
+      </c>
+      <c r="G11" s="9" t="str">
+        <f>C7</f>
+        <v>Francisco Javier Alamillo Murillo</v>
+      </c>
+      <c r="H11" s="9" t="str">
+        <f>C8</f>
+        <v>José Alejandro Salas Serna</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="15">
+        <v>8</v>
+      </c>
+      <c r="E13" s="15">
+        <v>10</v>
+      </c>
+      <c r="F13" s="15">
+        <v>8</v>
+      </c>
+      <c r="G13" s="15">
+        <v>9</v>
+      </c>
+      <c r="H13" s="15">
+        <v>10</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" ref="I13:I15" si="0">MIN(D13:H13)</f>
+        <v>8</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" ref="J13:J15" si="1">MAX(D13:H13)</f>
+        <v>10</v>
+      </c>
+      <c r="K13" s="18">
+        <f t="shared" ref="K13:K15" si="2">AVERAGE(D13:H13)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="20">
+        <v>6</v>
+      </c>
+      <c r="E14" s="20">
+        <v>6</v>
+      </c>
+      <c r="F14" s="20">
+        <v>5</v>
+      </c>
+      <c r="G14" s="20">
+        <v>6</v>
+      </c>
+      <c r="H14" s="20">
+        <v>6</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J14" s="22">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="2"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="25">
+        <v>2</v>
+      </c>
+      <c r="E15" s="25">
+        <v>3</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2</v>
+      </c>
+      <c r="G15" s="25">
+        <v>3</v>
+      </c>
+      <c r="H15" s="25">
+        <v>3</v>
+      </c>
+      <c r="I15" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K15" s="28">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="D12:H12"/>
@@ -5371,6 +5374,47 @@
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B17:L17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
